--- a/biology/Zoologie/Calligrapha_scalaris/Calligrapha_scalaris.xlsx
+++ b/biology/Zoologie/Calligrapha_scalaris/Calligrapha_scalaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calligrapha scalaris, communément appelé Calligraphe de l'orme, est une espèce de coléoptères de la famille des Chrysomelidae d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Calligrapha scalaris peut atteindre de 7 jusqu'à 9,5 mm de long.
 Sa livrée varie du blanc mauve à jaune, à macules variables. Son pronotum est conique et noir luisant, légèrement ponctué au centre et sur son limbe postérieur. Ses élytres présentent une large bande centrale à sept lobes, une tache latérale noire de chaque côté de la partie supérieure, et plusieurs petites taches et petits points noirs sur ses flancs.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se rencontre du Sud-Est du Canada jusqu'au Manitoba et de la Géorgie jusqu'au Texas.
 </t>
@@ -574,7 +590,9 @@
           <t>Cycles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines populations ne présentent aucun mâle et doivent recourir à la parthogenèse pour se reproduire.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Calligrapha scalaris est un insecte phytophage qui s'alimente essentiellement des feuilles de l'Orme d'Amérique, de l'Aulne, du Saule et du Tilleul.
 </t>
@@ -636,7 +656,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce porte les noms de Elm calligrapha et de Linden leaf beetle en anglais.
 </t>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) John Eatton Le Conte, « Description of some new species of North American insects », Annals of the Lyceum of Natural History of New York, vol. 1, no 1,‎ 1824, p. 169-173 (lire en ligne, consulté le 13 avril 2020).</t>
         </is>
